--- a/VT_REG2_PRI_V07_sl.xlsx
+++ b/VT_REG2_PRI_V07_sl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing_exes\Veda2.0_localhost_2.8.1.1_orig\Veda\Veda_models\Demo_models\DemoS_007_HD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_007_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C938ECF3-FC19-4629-AAD2-EFA64667D074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870BCEC-A7F7-46A2-BC85-F74A0AF34242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -33,14 +33,23 @@
     <sheet name="Demands" sheetId="134" r:id="rId18"/>
     <sheet name="Emi" sheetId="149" r:id="rId19"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
+    <definedName name="FID_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -16088,199 +16097,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="EnergyBalance"/>
-      <sheetName val="EB1"/>
-      <sheetName val="EB2"/>
-      <sheetName val="RES&amp;OBJ"/>
-      <sheetName val="Pri_COA"/>
-      <sheetName val="Pri_GAS"/>
-      <sheetName val="Pri_OIL"/>
-      <sheetName val="Pri_RNW"/>
-      <sheetName val="Pri_NUC"/>
-      <sheetName val="Pri_PP"/>
-      <sheetName val="Sector_Fuels"/>
-      <sheetName val="Con_REF"/>
-      <sheetName val="Con_ELC"/>
-      <sheetName val="DemTechs_TPS"/>
-      <sheetName val="DemTechs_ELC"/>
-      <sheetName val="DemTechs_RSD"/>
-      <sheetName val="DemTechs_TRA"/>
-      <sheetName val="Demands"/>
-      <sheetName val="Emi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="19">
-          <cell r="G19">
-            <v>8</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16635,24 +16451,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="10.86328125" customWidth="1"/>
+    <col min="19" max="19" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.85546875" customWidth="1"/>
-    <col min="28" max="42" width="11.7109375" customWidth="1"/>
+    <col min="26" max="26" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.86328125" customWidth="1"/>
+    <col min="28" max="42" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="U1" s="26" t="s">
         <v>119</v>
       </c>
@@ -16666,7 +16482,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="2:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:42" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D2" s="66" t="s">
         <v>47</v>
       </c>
@@ -16768,7 +16584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="2:42" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:42" ht="39.4" x14ac:dyDescent="0.4">
       <c r="C3" s="8"/>
       <c r="D3" s="67" t="s">
         <v>55</v>
@@ -16868,7 +16684,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:42" x14ac:dyDescent="0.35">
       <c r="C4" s="192" t="s">
         <v>62</v>
       </c>
@@ -16907,7 +16723,7 @@
       <c r="AO4" s="8"/>
       <c r="AP4" s="8"/>
     </row>
-    <row r="5" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="69" t="s">
         <v>63</v>
       </c>
@@ -17016,7 +16832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="69" t="s">
         <v>65</v>
       </c>
@@ -17124,7 +16940,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="69" t="s">
         <v>67</v>
       </c>
@@ -17233,7 +17049,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="189" t="s">
         <v>241</v>
       </c>
@@ -17322,7 +17138,7 @@
       <c r="AO8" s="122"/>
       <c r="AP8" s="123"/>
     </row>
-    <row r="9" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="75"/>
       <c r="C9" s="198" t="s">
         <v>69</v>
@@ -17363,7 +17179,7 @@
       <c r="AO9" s="8"/>
       <c r="AP9" s="8"/>
     </row>
-    <row r="10" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="69" t="s">
         <v>70</v>
       </c>
@@ -17465,7 +17281,7 @@
       </c>
       <c r="AP10" s="126"/>
     </row>
-    <row r="11" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="69" t="s">
         <v>54</v>
       </c>
@@ -17565,7 +17381,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="69" t="s">
         <v>73</v>
       </c>
@@ -17663,7 +17479,7 @@
       </c>
       <c r="AP12" s="128"/>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="69" t="s">
         <v>75</v>
       </c>
@@ -17755,7 +17571,7 @@
       </c>
       <c r="AP13" s="132"/>
     </row>
-    <row r="14" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
         <v>77</v>
@@ -17844,7 +17660,7 @@
       <c r="AO14" s="122"/>
       <c r="AP14" s="123"/>
     </row>
-    <row r="15" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="75"/>
       <c r="C15" s="198" t="s">
         <v>78</v>
@@ -17873,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="69" t="s">
         <v>79</v>
       </c>
@@ -17979,7 +17795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="69" t="s">
         <v>81</v>
       </c>
@@ -18085,7 +17901,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="69" t="s">
         <v>83</v>
       </c>
@@ -18191,7 +18007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="69" t="s">
         <v>85</v>
       </c>
@@ -18297,7 +18113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="69" t="s">
         <v>87</v>
       </c>
@@ -18403,7 +18219,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="69" t="s">
         <v>89</v>
       </c>
@@ -18509,7 +18325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="69" t="s">
         <v>110</v>
       </c>
@@ -18613,7 +18429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:42" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B23" s="69" t="s">
         <v>111</v>
       </c>
@@ -18717,7 +18533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="189" t="s">
         <v>113</v>
       </c>
@@ -18809,7 +18625,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -18820,7 +18636,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -18831,7 +18647,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C27" s="73" t="s">
         <v>226</v>
       </c>
@@ -18846,7 +18662,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -18857,7 +18673,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -18868,7 +18684,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -18879,7 +18695,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -18890,7 +18706,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -18901,7 +18717,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -18912,7 +18728,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -18923,7 +18739,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -18934,7 +18750,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D36" s="27" t="s">
         <v>47</v>
       </c>
@@ -18952,7 +18768,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C37" s="28" t="s">
         <v>156</v>
       </c>
@@ -18973,7 +18789,7 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C38" s="30" t="s">
         <v>157</v>
       </c>
@@ -18994,15 +18810,15 @@
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="32"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="32"/>
     </row>
-    <row r="41" spans="2:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" ht="39.4" x14ac:dyDescent="0.4">
       <c r="B41" s="35" t="s">
         <v>132</v>
       </c>
@@ -19056,7 +18872,7 @@
       </c>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B42" s="69" t="s">
         <v>79</v>
       </c>
@@ -19082,7 +18898,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B43" s="69" t="s">
         <v>79</v>
       </c>
@@ -19108,7 +18924,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B44" s="69" t="s">
         <v>79</v>
       </c>
@@ -19136,7 +18952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B45" s="69"/>
       <c r="C45" s="86"/>
       <c r="D45" s="97"/>
@@ -19156,7 +18972,7 @@
       <c r="R45" s="99"/>
       <c r="U45" s="86"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B46" s="69" t="s">
         <v>81</v>
       </c>
@@ -19182,7 +18998,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B47" s="69" t="s">
         <v>81</v>
       </c>
@@ -19208,7 +19024,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B48" s="69"/>
       <c r="C48" s="86"/>
       <c r="D48" s="97"/>
@@ -19228,7 +19044,7 @@
       <c r="R48" s="99"/>
       <c r="U48" s="86"/>
     </row>
-    <row r="49" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B49" s="69" t="s">
         <v>87</v>
       </c>
@@ -19256,7 +19072,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C52" s="104" t="s">
         <v>146</v>
       </c>
@@ -19267,7 +19083,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B53" s="26" t="s">
         <v>159</v>
       </c>
@@ -19281,7 +19097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B54" s="69" t="s">
         <v>79</v>
       </c>
@@ -19291,7 +19107,7 @@
       <c r="D54" s="108"/>
       <c r="E54" s="108"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B55" s="69" t="s">
         <v>87</v>
       </c>
@@ -19301,7 +19117,7 @@
       <c r="D55" s="108"/>
       <c r="E55" s="108"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B56" s="69" t="s">
         <v>89</v>
       </c>
@@ -19311,7 +19127,7 @@
       <c r="D56" s="108"/>
       <c r="E56" s="108"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B57" s="69" t="s">
         <v>54</v>
       </c>
@@ -19336,30 +19152,30 @@
       <selection activeCell="B39" sqref="B39:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.73046875" style="37" customWidth="1"/>
     <col min="9" max="9" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="37" customWidth="1"/>
+    <col min="10" max="10" width="11.86328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.73046875" style="37" customWidth="1"/>
     <col min="15" max="15" width="11" style="37" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="37" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="37" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="37"/>
+    <col min="16" max="16" width="13.1328125" style="37" customWidth="1"/>
+    <col min="17" max="17" width="13.59765625" style="37" customWidth="1"/>
+    <col min="18" max="18" width="7.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.86328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
@@ -19377,7 +19193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>206</v>
       </c>
@@ -19409,7 +19225,7 @@
       <c r="Q2" s="226"/>
       <c r="R2" s="226"/>
     </row>
-    <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C3" s="14" t="str">
         <f>EnergyBalance!H$2</f>
         <v>KER</v>
@@ -19450,7 +19266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="14" t="str">
         <f>EnergyBalance!I$2</f>
         <v>LPG</v>
@@ -19491,7 +19307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C5" s="14" t="str">
         <f>EnergyBalance!J$2</f>
         <v>GSL</v>
@@ -19509,11 +19325,11 @@
       </c>
       <c r="K5" s="226"/>
       <c r="L5" s="226" t="str">
-        <f>C2</f>
+        <f t="shared" ref="L5:M11" si="0">C2</f>
         <v>DSL</v>
       </c>
       <c r="M5" s="226" t="str">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>Diesel oil</v>
       </c>
       <c r="N5" s="226" t="str">
@@ -19525,7 +19341,7 @@
       <c r="Q5" s="226"/>
       <c r="R5" s="226"/>
     </row>
-    <row r="6" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C6" s="14" t="str">
         <f>EnergyBalance!K$2</f>
         <v>NAP</v>
@@ -19541,15 +19357,15 @@
       <c r="J6" s="226"/>
       <c r="K6" s="226"/>
       <c r="L6" s="226" t="str">
-        <f>C3</f>
+        <f t="shared" si="0"/>
         <v>KER</v>
       </c>
       <c r="M6" s="226" t="str">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>Kerosenes</v>
       </c>
       <c r="N6" s="226" t="str">
-        <f t="shared" ref="N6:N11" si="0">$E$2</f>
+        <f t="shared" ref="N6:N11" si="1">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="O6" s="226"/>
@@ -19557,7 +19373,7 @@
       <c r="Q6" s="226"/>
       <c r="R6" s="226"/>
     </row>
-    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C7" s="14" t="str">
         <f>EnergyBalance!L$2</f>
         <v>HFO</v>
@@ -19573,15 +19389,15 @@
       <c r="J7" s="226"/>
       <c r="K7" s="226"/>
       <c r="L7" s="226" t="str">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>LPG</v>
       </c>
       <c r="M7" s="226" t="str">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>LPG</v>
       </c>
       <c r="N7" s="226" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
       <c r="O7" s="226"/>
@@ -19589,7 +19405,7 @@
       <c r="Q7" s="226"/>
       <c r="R7" s="226"/>
     </row>
-    <row r="8" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C8" s="14" t="str">
         <f>EnergyBalance!M$2</f>
         <v>OPP</v>
@@ -19605,15 +19421,15 @@
       <c r="J8" s="226"/>
       <c r="K8" s="226"/>
       <c r="L8" s="226" t="str">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>GSL</v>
       </c>
       <c r="M8" s="226" t="str">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>Motor spirit</v>
       </c>
       <c r="N8" s="226" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
       <c r="O8" s="226"/>
@@ -19621,19 +19437,19 @@
       <c r="Q8" s="226"/>
       <c r="R8" s="226"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="J9" s="226"/>
       <c r="K9" s="226"/>
       <c r="L9" s="226" t="str">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>NAP</v>
       </c>
       <c r="M9" s="226" t="str">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>Naphtha</v>
       </c>
       <c r="N9" s="226" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
       <c r="O9" s="226"/>
@@ -19641,19 +19457,19 @@
       <c r="Q9" s="226"/>
       <c r="R9" s="226"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="J10" s="226"/>
       <c r="K10" s="226"/>
       <c r="L10" s="226" t="str">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>HFO</v>
       </c>
       <c r="M10" s="226" t="str">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>Heavy Fuel Oil</v>
       </c>
       <c r="N10" s="226" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
       <c r="O10" s="226"/>
@@ -19661,19 +19477,19 @@
       <c r="Q10" s="226"/>
       <c r="R10" s="226"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="J11" s="226"/>
       <c r="K11" s="226"/>
       <c r="L11" s="226" t="str">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>OPP</v>
       </c>
       <c r="M11" s="226" t="str">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>Other Petroleum Products</v>
       </c>
       <c r="N11" s="226" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
       <c r="O11" s="226"/>
@@ -19681,7 +19497,7 @@
       <c r="Q11" s="226"/>
       <c r="R11" s="226"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13"/>
       <c r="C13" s="237" t="s">
         <v>13</v>
@@ -19702,7 +19518,7 @@
       <c r="Q13" s="226"/>
       <c r="R13" s="226"/>
     </row>
-    <row r="14" spans="2:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B14" s="238" t="s">
         <v>265</v>
       </c>
@@ -19750,7 +19566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="241" t="s">
         <v>42</v>
       </c>
@@ -19792,7 +19608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="242" t="s">
         <v>284</v>
       </c>
@@ -19821,7 +19637,7 @@
       <c r="Q16" s="223"/>
       <c r="R16" s="223"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="242" t="s">
         <v>284</v>
       </c>
@@ -19844,11 +19660,11 @@
       </c>
       <c r="K17" s="226"/>
       <c r="L17" s="226" t="str">
-        <f>$J$17&amp;C2&amp;1</f>
+        <f t="shared" ref="L17:L23" si="2">$J$17&amp;C2&amp;1</f>
         <v>IMPDSL1</v>
       </c>
       <c r="M17" s="229" t="str">
-        <f>"Import of "&amp;D2&amp; " Step "&amp;RIGHT(L17,1)</f>
+        <f t="shared" ref="M17:M23" si="3">"Import of "&amp;D2&amp; " Step "&amp;RIGHT(L17,1)</f>
         <v>Import of Diesel oil Step 1</v>
       </c>
       <c r="N17" s="226" t="str">
@@ -19860,7 +19676,7 @@
       <c r="Q17" s="226"/>
       <c r="R17" s="226"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="242" t="s">
         <v>285</v>
       </c>
@@ -19880,15 +19696,15 @@
       <c r="J18" s="226"/>
       <c r="K18" s="226"/>
       <c r="L18" s="226" t="str">
-        <f>$J$17&amp;C3&amp;1</f>
+        <f t="shared" si="2"/>
         <v>IMPKER1</v>
       </c>
       <c r="M18" s="229" t="str">
-        <f>"Import of "&amp;D3&amp; " Step "&amp;RIGHT(L18,1)</f>
+        <f t="shared" si="3"/>
         <v>Import of Kerosenes Step 1</v>
       </c>
       <c r="N18" s="226" t="str">
-        <f t="shared" ref="N18:N23" si="1">$E$2</f>
+        <f t="shared" ref="N18:N23" si="4">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="O18" s="226"/>
@@ -19896,7 +19712,7 @@
       <c r="Q18" s="226"/>
       <c r="R18" s="226"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="242" t="s">
         <v>285</v>
       </c>
@@ -19916,15 +19732,15 @@
       <c r="J19" s="226"/>
       <c r="K19" s="226"/>
       <c r="L19" s="226" t="str">
-        <f>$J$17&amp;C4&amp;1</f>
+        <f t="shared" si="2"/>
         <v>IMPLPG1</v>
       </c>
       <c r="M19" s="229" t="str">
-        <f>"Import of "&amp;D4&amp; " Step "&amp;RIGHT(L19,1)</f>
+        <f t="shared" si="3"/>
         <v>Import of LPG Step 1</v>
       </c>
       <c r="N19" s="226" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
       <c r="O19" s="226"/>
@@ -19932,7 +19748,7 @@
       <c r="Q19" s="226"/>
       <c r="R19" s="226"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="242" t="s">
         <v>286</v>
       </c>
@@ -19952,15 +19768,15 @@
       <c r="J20" s="226"/>
       <c r="K20" s="226"/>
       <c r="L20" s="226" t="str">
-        <f>$J$17&amp;C5&amp;1</f>
+        <f t="shared" si="2"/>
         <v>IMPGSL1</v>
       </c>
       <c r="M20" s="229" t="str">
-        <f>"Import of "&amp;D5&amp; " Step "&amp;RIGHT(L20,1)</f>
+        <f t="shared" si="3"/>
         <v>Import of Motor spirit Step 1</v>
       </c>
       <c r="N20" s="226" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
       <c r="O20" s="226"/>
@@ -19968,7 +19784,7 @@
       <c r="Q20" s="226"/>
       <c r="R20" s="226"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="242" t="s">
         <v>286</v>
       </c>
@@ -19988,15 +19804,15 @@
       <c r="J21" s="226"/>
       <c r="K21" s="226"/>
       <c r="L21" s="226" t="str">
-        <f>$J$17&amp;C6&amp;1</f>
+        <f t="shared" si="2"/>
         <v>IMPNAP1</v>
       </c>
       <c r="M21" s="229" t="str">
-        <f>"Import of "&amp;D6&amp; " Step "&amp;RIGHT(L21,1)</f>
+        <f t="shared" si="3"/>
         <v>Import of Naphtha Step 1</v>
       </c>
       <c r="N21" s="226" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
       <c r="O21" s="226"/>
@@ -20004,7 +19820,7 @@
       <c r="Q21" s="226"/>
       <c r="R21" s="226"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="242" t="s">
         <v>287</v>
       </c>
@@ -20024,15 +19840,15 @@
       <c r="J22" s="226"/>
       <c r="K22" s="226"/>
       <c r="L22" s="226" t="str">
-        <f>$J$17&amp;C7&amp;1</f>
+        <f t="shared" si="2"/>
         <v>IMPHFO1</v>
       </c>
       <c r="M22" s="229" t="str">
-        <f>"Import of "&amp;D7&amp; " Step "&amp;RIGHT(L22,1)</f>
+        <f t="shared" si="3"/>
         <v>Import of Heavy Fuel Oil Step 1</v>
       </c>
       <c r="N22" s="226" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
       <c r="O22" s="226"/>
@@ -20040,7 +19856,7 @@
       <c r="Q22" s="226"/>
       <c r="R22" s="226"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="242" t="s">
         <v>287</v>
       </c>
@@ -20060,15 +19876,15 @@
       <c r="J23" s="226"/>
       <c r="K23" s="226"/>
       <c r="L23" s="226" t="str">
-        <f>$J$17&amp;C8&amp;1</f>
+        <f t="shared" si="2"/>
         <v>IMPOPP1</v>
       </c>
       <c r="M23" s="229" t="str">
-        <f>"Import of "&amp;D8&amp; " Step "&amp;RIGHT(L23,1)</f>
+        <f t="shared" si="3"/>
         <v>Import of Other Petroleum Products Step 1</v>
       </c>
       <c r="N23" s="226" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
       <c r="O23" s="226"/>
@@ -20076,7 +19892,7 @@
       <c r="Q23" s="226"/>
       <c r="R23" s="226"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="242" t="s">
         <v>288</v>
       </c>
@@ -20099,11 +19915,11 @@
       </c>
       <c r="K24" s="226"/>
       <c r="L24" s="226" t="str">
-        <f>$J$24&amp;C2&amp;1</f>
+        <f t="shared" ref="L24:L30" si="5">$J$24&amp;C2&amp;1</f>
         <v>EXPDSL1</v>
       </c>
       <c r="M24" s="229" t="str">
-        <f>"Export of "&amp;D2&amp; " Step "&amp;RIGHT(L24,1)</f>
+        <f t="shared" ref="M24:M30" si="6">"Export of "&amp;D2&amp; " Step "&amp;RIGHT(L24,1)</f>
         <v>Export of Diesel oil Step 1</v>
       </c>
       <c r="N24" s="226" t="str">
@@ -20115,7 +19931,7 @@
       <c r="Q24" s="226"/>
       <c r="R24" s="226"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="242" t="s">
         <v>288</v>
       </c>
@@ -20135,15 +19951,15 @@
       <c r="J25" s="226"/>
       <c r="K25" s="226"/>
       <c r="L25" s="226" t="str">
-        <f>$J$24&amp;C3&amp;1</f>
+        <f t="shared" si="5"/>
         <v>EXPKER1</v>
       </c>
       <c r="M25" s="229" t="str">
-        <f>"Export of "&amp;D3&amp; " Step "&amp;RIGHT(L25,1)</f>
+        <f t="shared" si="6"/>
         <v>Export of Kerosenes Step 1</v>
       </c>
       <c r="N25" s="226" t="str">
-        <f t="shared" ref="N25:N30" si="2">$E$2</f>
+        <f t="shared" ref="N25:N30" si="7">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="O25" s="226"/>
@@ -20151,7 +19967,7 @@
       <c r="Q25" s="226"/>
       <c r="R25" s="226"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="242" t="s">
         <v>289</v>
       </c>
@@ -20171,15 +19987,15 @@
       <c r="J26" s="226"/>
       <c r="K26" s="226"/>
       <c r="L26" s="226" t="str">
-        <f>$J$24&amp;C4&amp;1</f>
+        <f t="shared" si="5"/>
         <v>EXPLPG1</v>
       </c>
       <c r="M26" s="229" t="str">
-        <f>"Export of "&amp;D4&amp; " Step "&amp;RIGHT(L26,1)</f>
+        <f t="shared" si="6"/>
         <v>Export of LPG Step 1</v>
       </c>
       <c r="N26" s="226" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>PJ</v>
       </c>
       <c r="O26" s="226"/>
@@ -20187,7 +20003,7 @@
       <c r="Q26" s="226"/>
       <c r="R26" s="226"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="242" t="s">
         <v>289</v>
       </c>
@@ -20207,15 +20023,15 @@
       <c r="J27" s="226"/>
       <c r="K27" s="226"/>
       <c r="L27" s="226" t="str">
-        <f>$J$24&amp;C5&amp;1</f>
+        <f t="shared" si="5"/>
         <v>EXPGSL1</v>
       </c>
       <c r="M27" s="229" t="str">
-        <f>"Export of "&amp;D5&amp; " Step "&amp;RIGHT(L27,1)</f>
+        <f t="shared" si="6"/>
         <v>Export of Motor spirit Step 1</v>
       </c>
       <c r="N27" s="226" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>PJ</v>
       </c>
       <c r="O27" s="226"/>
@@ -20223,7 +20039,7 @@
       <c r="Q27" s="226"/>
       <c r="R27" s="226"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="242" t="s">
         <v>290</v>
       </c>
@@ -20243,15 +20059,15 @@
       <c r="J28" s="226"/>
       <c r="K28" s="226"/>
       <c r="L28" s="226" t="str">
-        <f>$J$24&amp;C6&amp;1</f>
+        <f t="shared" si="5"/>
         <v>EXPNAP1</v>
       </c>
       <c r="M28" s="229" t="str">
-        <f>"Export of "&amp;D6&amp; " Step "&amp;RIGHT(L28,1)</f>
+        <f t="shared" si="6"/>
         <v>Export of Naphtha Step 1</v>
       </c>
       <c r="N28" s="226" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>PJ</v>
       </c>
       <c r="O28" s="226"/>
@@ -20259,7 +20075,7 @@
       <c r="Q28" s="226"/>
       <c r="R28" s="226"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="242" t="s">
         <v>290</v>
       </c>
@@ -20279,15 +20095,15 @@
       <c r="J29" s="226"/>
       <c r="K29" s="226"/>
       <c r="L29" s="226" t="str">
-        <f>$J$24&amp;C7&amp;1</f>
+        <f t="shared" si="5"/>
         <v>EXPHFO1</v>
       </c>
       <c r="M29" s="229" t="str">
-        <f>"Export of "&amp;D7&amp; " Step "&amp;RIGHT(L29,1)</f>
+        <f t="shared" si="6"/>
         <v>Export of Heavy Fuel Oil Step 1</v>
       </c>
       <c r="N29" s="226" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>PJ</v>
       </c>
       <c r="O29" s="226"/>
@@ -20295,7 +20111,7 @@
       <c r="Q29" s="226"/>
       <c r="R29" s="226"/>
     </row>
-    <row r="30" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B30" s="242" t="s">
         <v>291</v>
       </c>
@@ -20308,22 +20124,21 @@
       </c>
       <c r="F30" s="245"/>
       <c r="G30" s="246">
-        <f>[2]Pri_OIL!$G$19*1.3</f>
         <v>10.4</v>
       </c>
       <c r="H30" s="248"/>
       <c r="J30" s="226"/>
       <c r="K30" s="226"/>
       <c r="L30" s="226" t="str">
-        <f>$J$24&amp;C8&amp;1</f>
+        <f t="shared" si="5"/>
         <v>EXPOPP1</v>
       </c>
       <c r="M30" s="229" t="str">
-        <f>"Export of "&amp;D8&amp; " Step "&amp;RIGHT(L30,1)</f>
+        <f t="shared" si="6"/>
         <v>Export of Other Petroleum Products Step 1</v>
       </c>
       <c r="N30" s="226" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>PJ</v>
       </c>
       <c r="O30" s="226"/>
@@ -20331,7 +20146,7 @@
       <c r="Q30" s="226"/>
       <c r="R30" s="226"/>
     </row>
-    <row r="31" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B31" s="242" t="s">
         <v>292</v>
       </c>
@@ -20344,12 +20159,11 @@
       </c>
       <c r="F31" s="245"/>
       <c r="G31" s="246">
-        <f>[2]Pri_OIL!$G$19*1.4</f>
         <v>11.2</v>
       </c>
       <c r="H31" s="40"/>
     </row>
-    <row r="32" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B32" s="242" t="s">
         <v>293</v>
       </c>
@@ -20362,11 +20176,10 @@
       </c>
       <c r="F32" s="245"/>
       <c r="G32" s="82">
-        <f>[2]Pri_OIL!$G$19*1.05</f>
         <v>8.4</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B33" s="242" t="s">
         <v>294</v>
       </c>
@@ -20379,11 +20192,10 @@
       </c>
       <c r="F33" s="245"/>
       <c r="G33" s="82">
-        <f>[2]Pri_OIL!$G$19*1.4</f>
         <v>11.2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B34" s="242" t="s">
         <v>295</v>
       </c>
@@ -20396,11 +20208,10 @@
       </c>
       <c r="F34" s="245"/>
       <c r="G34" s="82">
-        <f>[2]Pri_OIL!$G$19*1.1</f>
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B35" s="242" t="s">
         <v>296</v>
       </c>
@@ -20413,11 +20224,10 @@
       </c>
       <c r="F35" s="245"/>
       <c r="G35" s="82">
-        <f>[2]Pri_OIL!$G$19*1.05</f>
         <v>8.4</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B36" s="242" t="s">
         <v>297</v>
       </c>
@@ -20430,17 +20240,16 @@
       </c>
       <c r="F36" s="245"/>
       <c r="G36" s="82">
-        <f>[2]Pri_OIL!$G$19*1.05</f>
         <v>8.4</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="82"/>
       <c r="C39" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="152"/>
       <c r="C40" s="1" t="s">
         <v>230</v>
@@ -20463,29 +20272,29 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1328125" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.86328125" customWidth="1"/>
+    <col min="17" max="17" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>94</v>
       </c>
@@ -20506,7 +20315,7 @@
       </c>
       <c r="H1" s="46"/>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
@@ -20536,7 +20345,7 @@
       <c r="Q2" s="218"/>
       <c r="R2" s="218"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="J3" s="219" t="s">
         <v>7</v>
       </c>
@@ -20565,7 +20374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -20599,7 +20408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="157"/>
@@ -20625,7 +20434,7 @@
       <c r="Q5" s="222"/>
       <c r="R5" s="222"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="157"/>
@@ -20649,7 +20458,7 @@
       <c r="Q6" s="222"/>
       <c r="R6" s="222"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="157"/>
@@ -20673,7 +20482,7 @@
       <c r="Q7" s="222"/>
       <c r="R7" s="222"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="157"/>
@@ -20697,7 +20506,7 @@
       <c r="Q8" s="222"/>
       <c r="R8" s="222"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="157"/>
@@ -20721,7 +20530,7 @@
       <c r="Q9" s="222"/>
       <c r="R9" s="222"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="157"/>
@@ -20745,7 +20554,7 @@
       <c r="Q10" s="222"/>
       <c r="R10" s="222"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="157"/>
@@ -20769,7 +20578,7 @@
       <c r="Q11" s="222"/>
       <c r="R11" s="222"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="157"/>
@@ -20793,7 +20602,7 @@
       <c r="Q12" s="222"/>
       <c r="R12" s="222"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="157"/>
@@ -20817,7 +20626,7 @@
       <c r="Q13" s="222"/>
       <c r="R13" s="222"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="157"/>
@@ -20841,7 +20650,7 @@
       <c r="Q14" s="222"/>
       <c r="R14" s="222"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="157"/>
@@ -20865,7 +20674,7 @@
       <c r="Q15" s="222"/>
       <c r="R15" s="222"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="157"/>
@@ -20889,7 +20698,7 @@
       <c r="Q16" s="222"/>
       <c r="R16" s="222"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="157"/>
@@ -20913,11 +20722,11 @@
       <c r="Q17" s="222"/>
       <c r="R17" s="222"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="L18" s="37"/>
       <c r="M18" s="38"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
@@ -20935,7 +20744,7 @@
       <c r="Q19" s="222"/>
       <c r="R19" s="222"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>1</v>
       </c>
@@ -20985,7 +20794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
@@ -21035,7 +20844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="18" t="s">
         <v>115</v>
       </c>
@@ -21062,7 +20871,7 @@
       <c r="Q22" s="223"/>
       <c r="R22" s="223"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f t="shared" ref="B23:B30" si="1">L23</f>
         <v>FTE-RSDGAS</v>
@@ -21107,7 +20916,7 @@
       <c r="Q23" s="222"/>
       <c r="R23" s="222"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRADSL</v>
@@ -21150,7 +20959,7 @@
       <c r="Q24" s="222"/>
       <c r="R24" s="222"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAKER</v>
@@ -21193,7 +21002,7 @@
       <c r="Q25" s="222"/>
       <c r="R25" s="222"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRALPG</v>
@@ -21236,7 +21045,7 @@
       <c r="Q26" s="222"/>
       <c r="R26" s="222"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAGSL</v>
@@ -21279,7 +21088,7 @@
       <c r="Q27" s="222"/>
       <c r="R27" s="222"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAHFO</v>
@@ -21322,7 +21131,7 @@
       <c r="Q28" s="222"/>
       <c r="R28" s="222"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAELC</v>
@@ -21365,7 +21174,7 @@
       <c r="Q29" s="222"/>
       <c r="R29" s="222"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAGAS</v>
@@ -21408,7 +21217,7 @@
       <c r="Q30" s="222"/>
       <c r="R30" s="222"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="37" t="str">
         <f>Sector_Fuels!L31</f>
         <v>FTE-ELCCOA</v>
@@ -21451,7 +21260,7 @@
       <c r="Q31" s="222"/>
       <c r="R31" s="222"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="37" t="str">
         <f>Sector_Fuels!L32</f>
         <v>FTE-ELCGAS</v>
@@ -21494,7 +21303,7 @@
       <c r="Q32" s="222"/>
       <c r="R32" s="222"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="37" t="str">
         <f>Sector_Fuels!L33</f>
         <v>FTE-ELCOIL</v>
@@ -21540,7 +21349,7 @@
       <c r="Q33" s="222"/>
       <c r="R33" s="222"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="37"/>
       <c r="C34" t="str">
         <f>EnergyBalance!I$2</f>
@@ -21576,7 +21385,7 @@
       <c r="Q34" s="222"/>
       <c r="R34" s="222"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="37"/>
       <c r="C35" t="str">
         <f>EnergyBalance!L$2</f>
@@ -21612,7 +21421,7 @@
       <c r="Q35" s="222"/>
       <c r="R35" s="222"/>
     </row>
-    <row r="36" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="37"/>
       <c r="C36" t="str">
         <f>EnergyBalance!M$2</f>
@@ -21627,7 +21436,7 @@
       <c r="G36" s="156"/>
       <c r="H36" s="149"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="37" t="str">
         <f>Sector_Fuels!L34</f>
         <v>FTE-ELCRNW</v>
@@ -21649,7 +21458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="37" t="str">
         <f>Sector_Fuels!L35</f>
         <v>FTE-ELCNUC</v>
@@ -21671,13 +21480,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="82"/>
       <c r="C42" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="152"/>
       <c r="C43" s="1" t="s">
         <v>230</v>
@@ -21698,30 +21507,30 @@
       <selection activeCell="D8" sqref="B8:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="37" customWidth="1"/>
     <col min="5" max="5" width="12" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="37" customWidth="1"/>
-    <col min="7" max="11" width="14.140625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" style="37" customWidth="1"/>
+    <col min="7" max="11" width="14.1328125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="7.86328125" style="37" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="37"/>
+    <col min="14" max="14" width="11.86328125" customWidth="1"/>
+    <col min="15" max="15" width="7.59765625" customWidth="1"/>
+    <col min="16" max="16" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" customWidth="1"/>
+    <col min="19" max="19" width="10.86328125" customWidth="1"/>
+    <col min="20" max="20" width="12.86328125" customWidth="1"/>
+    <col min="21" max="21" width="13.73046875" customWidth="1"/>
+    <col min="22" max="22" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.86328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
@@ -21748,7 +21557,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>75</v>
       </c>
@@ -21788,7 +21597,7 @@
       <c r="U2" s="218"/>
       <c r="V2" s="218"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N3" s="219" t="s">
         <v>7</v>
       </c>
@@ -21817,7 +21626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="43"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
@@ -21851,7 +21660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="42"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -21867,11 +21676,11 @@
       <c r="U5" s="222"/>
       <c r="V5" s="222"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="237" t="s">
         <v>13</v>
       </c>
@@ -21887,7 +21696,7 @@
       <c r="U8" s="218"/>
       <c r="V8" s="218"/>
     </row>
-    <row r="9" spans="2:22" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="238" t="s">
         <v>265</v>
       </c>
@@ -21950,7 +21759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="241" t="s">
         <v>42</v>
       </c>
@@ -21996,7 +21805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="242" t="s">
         <v>302</v>
       </c>
@@ -22035,7 +21844,7 @@
       <c r="U11" s="221"/>
       <c r="V11" s="221"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B12" s="242" t="s">
         <v>302</v>
       </c>
@@ -22086,7 +21895,7 @@
       </c>
       <c r="V12" s="222"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B13" s="242" t="s">
         <v>302</v>
       </c>
@@ -22121,7 +21930,7 @@
       </c>
       <c r="Q13" s="24"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B14" s="242" t="s">
         <v>302</v>
       </c>
@@ -22154,7 +21963,7 @@
       </c>
       <c r="Q14" s="24"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B15" s="242" t="s">
         <v>302</v>
       </c>
@@ -22187,7 +21996,7 @@
       </c>
       <c r="Q15" s="24"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B16" s="242" t="s">
         <v>302</v>
       </c>
@@ -22221,7 +22030,7 @@
       <c r="Q16" s="24"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="242" t="s">
         <v>302</v>
       </c>
@@ -22254,7 +22063,7 @@
       </c>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" s="242" t="s">
         <v>302</v>
       </c>
@@ -22286,7 +22095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="242" t="s">
         <v>302</v>
       </c>
@@ -22318,16 +22127,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E20" s="54"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="82"/>
       <c r="C23" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="152"/>
       <c r="C24" s="1" t="s">
         <v>230</v>
@@ -22348,39 +22157,39 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="37" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="37" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="37" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="37" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="37" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="37" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="9.265625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="7.86328125" style="37" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" style="37" customWidth="1"/>
+    <col min="14" max="14" width="14.59765625" style="37" customWidth="1"/>
     <col min="15" max="15" width="12" style="37" customWidth="1"/>
     <col min="16" max="16" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.59765625" style="37" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.265625" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" customWidth="1"/>
+    <col min="25" max="25" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="37"/>
+    <col min="27" max="27" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.86328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
@@ -22404,7 +22213,7 @@
       </c>
       <c r="J1" s="159"/>
     </row>
-    <row r="2" spans="2:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>EnergyBalance!B11</f>
         <v>ELC</v>
@@ -22443,7 +22252,7 @@
       <c r="Z2" s="218"/>
       <c r="AA2" s="218"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="S3" s="219" t="s">
         <v>7</v>
       </c>
@@ -22472,7 +22281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -22517,7 +22326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="42" t="s">
         <v>174</v>
       </c>
@@ -22559,7 +22368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="S6" s="222" t="s">
         <v>145</v>
       </c>
@@ -22581,11 +22390,11 @@
       <c r="Z6" s="222"/>
       <c r="AA6" s="222"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -22608,7 +22417,7 @@
       <c r="Z8" s="218"/>
       <c r="AA8" s="218"/>
     </row>
-    <row r="9" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
         <v>1</v>
       </c>
@@ -22684,7 +22493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
         <v>42</v>
       </c>
@@ -22759,7 +22568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="18" t="s">
         <v>115</v>
       </c>
@@ -22815,7 +22624,7 @@
       <c r="Z11" s="221"/>
       <c r="AA11" s="221"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" s="37" t="str">
         <f>U12</f>
         <v>ELCTECOA00</v>
@@ -22887,7 +22696,7 @@
       <c r="Z12" s="222"/>
       <c r="AA12" s="222"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D13" s="37" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22930,7 +22739,7 @@
       <c r="Z13" s="222"/>
       <c r="AA13" s="222"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B14" s="37" t="str">
         <f>U13</f>
         <v>ELCTEGAS00</v>
@@ -22998,7 +22807,7 @@
       <c r="Z14" s="222"/>
       <c r="AA14" s="222"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D15" s="37" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -23041,7 +22850,7 @@
       <c r="Z15" s="222"/>
       <c r="AA15" s="222"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B16" s="37" t="str">
         <f>U14</f>
         <v>ELCTEOIL00</v>
@@ -23111,7 +22920,7 @@
       <c r="Z16" s="222"/>
       <c r="AA16" s="222"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
       <c r="D17" s="37" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -23133,7 +22942,7 @@
       <c r="R17" s="51"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B18" s="37" t="str">
         <f>U15</f>
         <v>ELCRERNW00</v>
@@ -23179,7 +22988,7 @@
       </c>
       <c r="R18" s="51"/>
     </row>
-    <row r="19" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="53" t="str">
         <f>U16</f>
         <v>ELCNENUC00</v>
@@ -23228,16 +23037,16 @@
       </c>
       <c r="R19" s="51"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.35">
       <c r="R20" s="51"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B25" s="82"/>
       <c r="C25" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B26" s="152"/>
       <c r="C26" s="1" t="s">
         <v>230</v>
@@ -23258,32 +23067,32 @@
       <selection activeCell="D8" sqref="B8:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="37" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="37" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="37" customWidth="1"/>
-    <col min="10" max="12" width="8.140625" style="37" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="37" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="37" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="37" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="37" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" style="37" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="37" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="37"/>
+    <col min="6" max="6" width="13.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" style="37" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="37" customWidth="1"/>
+    <col min="10" max="12" width="8.1328125" style="37" customWidth="1"/>
+    <col min="13" max="13" width="2.73046875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="12.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1328125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.59765625" style="37" customWidth="1"/>
+    <col min="19" max="19" width="11.73046875" style="37" customWidth="1"/>
+    <col min="20" max="20" width="13.1328125" style="37" customWidth="1"/>
+    <col min="21" max="21" width="13.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.3984375" style="37" customWidth="1"/>
+    <col min="23" max="16384" width="8.86328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>94</v>
       </c>
@@ -23303,7 +23112,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -23339,7 +23148,7 @@
       <c r="U2" s="226"/>
       <c r="V2" s="226"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N3" s="227" t="s">
         <v>7</v>
       </c>
@@ -23368,7 +23177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -23402,7 +23211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -23429,7 +23238,7 @@
       <c r="U5" s="226"/>
       <c r="V5" s="226"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="252"/>
       <c r="C8" s="237" t="s">
         <v>13</v>
@@ -23455,7 +23264,7 @@
       <c r="U8" s="226"/>
       <c r="V8" s="226"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="238" t="s">
         <v>265</v>
       </c>
@@ -23517,7 +23326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="241" t="s">
         <v>42</v>
       </c>
@@ -23563,7 +23372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="230" t="s">
         <v>309</v>
       </c>
@@ -23601,7 +23410,7 @@
       <c r="U11" s="221"/>
       <c r="V11" s="221"/>
     </row>
-    <row r="12" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="230" t="s">
         <v>309</v>
       </c>
@@ -23645,7 +23454,7 @@
       <c r="U12" s="226"/>
       <c r="V12" s="226"/>
     </row>
-    <row r="13" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="230" t="s">
         <v>309</v>
       </c>
@@ -23666,7 +23475,7 @@
       </c>
       <c r="L13" s="230"/>
     </row>
-    <row r="14" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="230" t="s">
         <v>309</v>
       </c>
@@ -23689,7 +23498,7 @@
       <c r="L14" s="230"/>
       <c r="Q14" s="38"/>
     </row>
-    <row r="15" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="230" t="s">
         <v>309</v>
       </c>
@@ -23709,19 +23518,19 @@
       <c r="L15" s="230"/>
       <c r="Q15" s="38"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I18" s="190"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I19" s="190"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="161"/>
       <c r="C23" s="37" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="191"/>
       <c r="C24" s="37" t="s">
         <v>230</v>
@@ -23742,32 +23551,32 @@
       <selection activeCell="D8" sqref="B8:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="37" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="37" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="37" customWidth="1"/>
-    <col min="10" max="12" width="8.140625" style="37" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="37" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="37" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="37" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1328125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="37" customWidth="1"/>
+    <col min="10" max="12" width="8.1328125" style="37" customWidth="1"/>
+    <col min="13" max="13" width="2.73046875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="12.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1328125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.59765625" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.86328125" style="37" customWidth="1"/>
+    <col min="19" max="19" width="11.73046875" style="37" customWidth="1"/>
     <col min="20" max="20" width="13" style="37" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="37" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="37"/>
+    <col min="21" max="21" width="13.73046875" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.3984375" style="37" customWidth="1"/>
+    <col min="23" max="16384" width="8.86328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>94</v>
       </c>
@@ -23787,7 +23596,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -23823,7 +23632,7 @@
       <c r="U2" s="226"/>
       <c r="V2" s="226"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N3" s="227" t="s">
         <v>7</v>
       </c>
@@ -23852,7 +23661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -23886,7 +23695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -23913,7 +23722,7 @@
       <c r="U5" s="226"/>
       <c r="V5" s="226"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="252"/>
       <c r="C8" s="252"/>
       <c r="D8" s="237" t="s">
@@ -23939,7 +23748,7 @@
       <c r="U8" s="226"/>
       <c r="V8" s="226"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="238" t="s">
         <v>265</v>
       </c>
@@ -24001,7 +23810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="241" t="s">
         <v>42</v>
       </c>
@@ -24047,7 +23856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="230" t="s">
         <v>316</v>
       </c>
@@ -24085,7 +23894,7 @@
       <c r="U11" s="221"/>
       <c r="V11" s="221"/>
     </row>
-    <row r="12" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="230" t="s">
         <v>316</v>
       </c>
@@ -24129,7 +23938,7 @@
       <c r="U12" s="226"/>
       <c r="V12" s="226"/>
     </row>
-    <row r="13" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="230" t="s">
         <v>316</v>
       </c>
@@ -24150,7 +23959,7 @@
       </c>
       <c r="L13" s="230"/>
     </row>
-    <row r="14" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="230" t="s">
         <v>316</v>
       </c>
@@ -24173,7 +23982,7 @@
       <c r="L14" s="230"/>
       <c r="Q14" s="38"/>
     </row>
-    <row r="15" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="230" t="s">
         <v>316</v>
       </c>
@@ -24193,19 +24002,19 @@
       <c r="L15" s="230"/>
       <c r="Q15" s="38"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I18" s="190"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I19" s="190"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="161"/>
       <c r="C23" s="37" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="191"/>
       <c r="C24" s="37" t="s">
         <v>230</v>
@@ -24222,36 +24031,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="B8:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="10" max="11" width="8.1328125" customWidth="1"/>
+    <col min="12" max="12" width="13.265625" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1328125" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.265625" customWidth="1"/>
+    <col min="19" max="19" width="11.73046875" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" customWidth="1"/>
+    <col min="21" max="21" width="13.86328125" customWidth="1"/>
+    <col min="22" max="22" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>94</v>
       </c>
@@ -24274,7 +24083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>EnergyBalance!B16</f>
         <v>RSD</v>
@@ -24311,7 +24120,7 @@
       <c r="U2" s="218"/>
       <c r="V2" s="218"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N3" s="219" t="s">
         <v>7</v>
       </c>
@@ -24340,7 +24149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -24374,7 +24183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -24401,7 +24210,7 @@
       <c r="U5" s="218"/>
       <c r="V5" s="218"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="N6" s="222" t="s">
         <v>145</v>
       </c>
@@ -24423,7 +24232,7 @@
       <c r="U6" s="222"/>
       <c r="V6" s="222"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="237" t="s">
         <v>13</v>
       </c>
@@ -24446,7 +24255,7 @@
       <c r="U8" s="222"/>
       <c r="V8" s="222"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="238" t="s">
         <v>265</v>
       </c>
@@ -24508,7 +24317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="241" t="s">
         <v>42</v>
       </c>
@@ -24554,7 +24363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="230" t="s">
         <v>318</v>
       </c>
@@ -24588,7 +24397,7 @@
       <c r="U11" s="221"/>
       <c r="V11" s="221"/>
     </row>
-    <row r="12" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="230" t="s">
         <v>318</v>
       </c>
@@ -24636,7 +24445,7 @@
       <c r="U12" s="222"/>
       <c r="V12" s="222"/>
     </row>
-    <row r="13" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="230" t="s">
         <v>318</v>
       </c>
@@ -24662,7 +24471,7 @@
       <c r="L13" s="230"/>
       <c r="Q13" s="24"/>
     </row>
-    <row r="14" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="230" t="s">
         <v>318</v>
       </c>
@@ -24685,7 +24494,7 @@
       <c r="L14" s="230"/>
       <c r="Q14" s="24"/>
     </row>
-    <row r="15" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="230" t="s">
         <v>318</v>
       </c>
@@ -24705,7 +24514,7 @@
       <c r="L15" s="230"/>
       <c r="Q15" s="24"/>
     </row>
-    <row r="16" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="230" t="s">
         <v>318</v>
       </c>
@@ -24727,37 +24536,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I19" s="13"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="82"/>
       <c r="C23" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="152"/>
       <c r="C24" s="1" t="s">
         <v>230</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="M28" s="1"/>
     </row>
   </sheetData>
@@ -24775,34 +24584,34 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" customWidth="1"/>
+    <col min="17" max="17" width="7.1328125" customWidth="1"/>
+    <col min="18" max="18" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1328125" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>94</v>
       </c>
@@ -24827,7 +24636,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="str">
         <f>EnergyBalance!B20</f>
         <v>TRA</v>
@@ -24867,7 +24676,7 @@
       <c r="W2" s="218"/>
       <c r="X2" s="218"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="P3" s="219" t="s">
         <v>7</v>
       </c>
@@ -24896,7 +24705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -24930,7 +24739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -24956,7 +24765,7 @@
       <c r="W5" s="218"/>
       <c r="X5" s="218"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P6" s="222" t="s">
         <v>145</v>
       </c>
@@ -24978,7 +24787,7 @@
       <c r="W6" s="222"/>
       <c r="X6" s="222"/>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -24998,7 +24807,7 @@
       <c r="W8" s="222"/>
       <c r="X8" s="222"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
@@ -25064,7 +24873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
         <v>42</v>
       </c>
@@ -25128,7 +24937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="18" t="s">
         <v>115</v>
       </c>
@@ -25177,7 +24986,7 @@
       <c r="W11" s="221"/>
       <c r="X11" s="221"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <f>R12</f>
         <v>TCAREDSL</v>
@@ -25242,7 +25051,7 @@
       </c>
       <c r="X12" s="222"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f>R13</f>
         <v>TCARELPG</v>
@@ -25305,7 +25114,7 @@
       </c>
       <c r="X13" s="222"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f>R14</f>
         <v>TCAREGSL</v>
@@ -25368,7 +25177,7 @@
       </c>
       <c r="X14" s="222"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f>R15</f>
         <v>TCAREGAS</v>
@@ -25431,17 +25240,17 @@
       </c>
       <c r="X15" s="222"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="N16" s="65"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="E17" s="10"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="J18" s="13"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="82"/>
       <c r="C23" s="1" t="s">
         <v>229</v>
@@ -25450,7 +25259,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="152"/>
       <c r="C24" s="1" t="s">
         <v>230</v>
@@ -25460,23 +25269,23 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="E27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -25494,23 +25303,23 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="8" width="11.265625" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" customWidth="1"/>
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.59765625" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>94</v>
       </c>
@@ -25528,7 +25337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>106</v>
       </c>
@@ -25544,7 +25353,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -25555,7 +25364,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>103</v>
       </c>
@@ -25593,7 +25402,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="20.65" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>104</v>
       </c>
@@ -25622,7 +25431,7 @@
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
     </row>
-    <row r="8" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="18" t="s">
         <v>115</v>
       </c>
@@ -25644,7 +25453,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="64" t="s">
         <v>35</v>
       </c>
@@ -25678,7 +25487,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -25712,7 +25521,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -25746,7 +25555,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
@@ -25794,27 +25603,27 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E15" s="40"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E16" s="10"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E18" s="10"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="82"/>
       <c r="C24" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="152"/>
       <c r="C25" s="1"/>
     </row>
@@ -25832,14 +25641,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="37"/>
-    <col min="2" max="2" width="14.42578125" style="37" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="37"/>
+    <col min="1" max="1" width="8.86328125" style="37"/>
+    <col min="2" max="2" width="14.3984375" style="37" customWidth="1"/>
+    <col min="3" max="16384" width="8.86328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="60" t="s">
         <v>217</v>
       </c>
@@ -25850,7 +25659,7 @@
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
     </row>
-    <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
@@ -25858,7 +25667,7 @@
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
-    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B5" s="171" t="s">
         <v>218</v>
       </c>
@@ -25869,7 +25678,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="62" t="s">
         <v>0</v>
       </c>
@@ -25892,7 +25701,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="18" t="s">
         <v>115</v>
       </c>
@@ -25915,7 +25724,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
         <v>243</v>
       </c>
@@ -25938,16 +25747,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H9" s="20"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="82"/>
       <c r="C23" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="152"/>
       <c r="C24" s="1" t="s">
         <v>230</v>
@@ -25970,20 +25779,20 @@
       <selection activeCell="F22" sqref="F22:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="10.86328125" customWidth="1"/>
+    <col min="19" max="19" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="U1" s="26" t="s">
         <v>119</v>
       </c>
@@ -25997,7 +25806,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D2" s="66" t="s">
         <v>47</v>
       </c>
@@ -26054,7 +25863,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" ht="39.4" x14ac:dyDescent="0.4">
       <c r="C3" s="147" t="s">
         <v>189</v>
       </c>
@@ -26107,7 +25916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C4" s="192" t="s">
         <v>62</v>
       </c>
@@ -26128,7 +25937,7 @@
       <c r="R4" s="194"/>
       <c r="S4" s="195"/>
     </row>
-    <row r="5" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="69" t="s">
         <v>63</v>
       </c>
@@ -26201,7 +26010,7 @@
       </c>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="69" t="s">
         <v>65</v>
       </c>
@@ -26273,7 +26082,7 @@
         <v>19147.524000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="69" t="s">
         <v>67</v>
       </c>
@@ -26346,7 +26155,7 @@
       </c>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="189" t="s">
         <v>241</v>
       </c>
@@ -26418,7 +26227,7 @@
         <v>27652.1335</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="75"/>
       <c r="C9" s="198" t="s">
         <v>69</v>
@@ -26440,7 +26249,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="199"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="69" t="s">
         <v>70</v>
       </c>
@@ -26512,7 +26321,7 @@
         <v>-612.32330000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="69" t="s">
         <v>54</v>
       </c>
@@ -26584,7 +26393,7 @@
         <v>-4578.3696999999993</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="69" t="s">
         <v>73</v>
       </c>
@@ -26656,7 +26465,7 @@
         <v>12.089300000000037</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="69" t="s">
         <v>75</v>
       </c>
@@ -26728,7 +26537,7 @@
         <v>-120.51690000000087</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
         <v>77</v>
@@ -26798,7 +26607,7 @@
         <v>-5299.1206000000038</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="75"/>
       <c r="C15" s="198" t="s">
         <v>78</v>
@@ -26820,7 +26629,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="199"/>
     </row>
-    <row r="16" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="69" t="s">
         <v>79</v>
       </c>
@@ -26889,7 +26698,7 @@
         <v>4205.8834000000006</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="69" t="s">
         <v>81</v>
       </c>
@@ -26958,7 +26767,7 @@
         <v>1772.4010000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="69" t="s">
         <v>83</v>
       </c>
@@ -27027,7 +26836,7 @@
         <v>5642.7446</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="69" t="s">
         <v>85</v>
       </c>
@@ -27096,7 +26905,7 @@
         <v>363.87809999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="69" t="s">
         <v>87</v>
       </c>
@@ -27165,7 +26974,7 @@
         <v>4719.6017000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="69" t="s">
         <v>89</v>
       </c>
@@ -27234,7 +27043,7 @@
         <v>3218.0079999999989</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="69" t="s">
         <v>110</v>
       </c>
@@ -27303,7 +27112,7 @@
         <v>1274.2054000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B23" s="69" t="s">
         <v>111</v>
       </c>
@@ -27372,7 +27181,7 @@
         <v>633.32759999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="189" t="s">
         <v>113</v>
       </c>
@@ -27441,7 +27250,7 @@
         <v>21830.049799999997</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -27452,7 +27261,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -27463,7 +27272,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C27" s="73" t="s">
         <v>226</v>
       </c>
@@ -27478,7 +27287,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -27489,7 +27298,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -27500,7 +27309,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -27511,7 +27320,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -27522,7 +27331,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -27533,7 +27342,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -27544,7 +27353,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -27555,7 +27364,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -27566,7 +27375,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D36" s="27" t="s">
         <v>47</v>
       </c>
@@ -27584,7 +27393,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C37" s="28" t="s">
         <v>156</v>
       </c>
@@ -27605,7 +27414,7 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C38" s="30" t="s">
         <v>157</v>
       </c>
@@ -27626,15 +27435,15 @@
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="32"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="32"/>
     </row>
-    <row r="41" spans="2:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" ht="39.4" x14ac:dyDescent="0.4">
       <c r="B41" s="35" t="s">
         <v>132</v>
       </c>
@@ -27688,7 +27497,7 @@
       </c>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B42" s="69" t="s">
         <v>79</v>
       </c>
@@ -27714,7 +27523,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B43" s="69" t="s">
         <v>79</v>
       </c>
@@ -27740,7 +27549,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B44" s="69" t="s">
         <v>79</v>
       </c>
@@ -27768,7 +27577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B45" s="69"/>
       <c r="C45" s="86"/>
       <c r="D45" s="97"/>
@@ -27788,7 +27597,7 @@
       <c r="R45" s="99"/>
       <c r="U45" s="86"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B46" s="69" t="s">
         <v>81</v>
       </c>
@@ -27814,7 +27623,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B47" s="69" t="s">
         <v>81</v>
       </c>
@@ -27840,7 +27649,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B48" s="69"/>
       <c r="C48" s="86"/>
       <c r="D48" s="97"/>
@@ -27860,7 +27669,7 @@
       <c r="R48" s="99"/>
       <c r="U48" s="86"/>
     </row>
-    <row r="49" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B49" s="69" t="s">
         <v>87</v>
       </c>
@@ -27888,7 +27697,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C52" s="104" t="s">
         <v>146</v>
       </c>
@@ -27899,7 +27708,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B53" s="26" t="s">
         <v>159</v>
       </c>
@@ -27913,7 +27722,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B54" s="69" t="s">
         <v>79</v>
       </c>
@@ -27923,7 +27732,7 @@
       <c r="D54" s="108"/>
       <c r="E54" s="108"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B55" s="69" t="s">
         <v>87</v>
       </c>
@@ -27933,7 +27742,7 @@
       <c r="D55" s="108"/>
       <c r="E55" s="108"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B56" s="69" t="s">
         <v>89</v>
       </c>
@@ -27943,7 +27752,7 @@
       <c r="D56" s="108"/>
       <c r="E56" s="108"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B57" s="69" t="s">
         <v>54</v>
       </c>
@@ -27971,20 +27780,20 @@
       <selection activeCell="F22" sqref="F22:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="U1" s="26" t="s">
         <v>119</v>
       </c>
@@ -27998,7 +27807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D2" s="66" t="s">
         <v>47</v>
       </c>
@@ -28055,7 +27864,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" ht="39.4" x14ac:dyDescent="0.4">
       <c r="C3" s="146" t="s">
         <v>190</v>
       </c>
@@ -28108,7 +27917,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C4" s="192" t="s">
         <v>62</v>
       </c>
@@ -28129,7 +27938,7 @@
       <c r="R4" s="194"/>
       <c r="S4" s="195"/>
     </row>
-    <row r="5" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="69" t="s">
         <v>63</v>
       </c>
@@ -28202,7 +28011,7 @@
       </c>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="69" t="s">
         <v>65</v>
       </c>
@@ -28274,7 +28083,7 @@
         <v>41847.555</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="69" t="s">
         <v>67</v>
       </c>
@@ -28347,7 +28156,7 @@
       </c>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="189" t="s">
         <v>241</v>
       </c>
@@ -28419,7 +28228,7 @@
         <v>50821.782500000001</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="75"/>
       <c r="C9" s="198" t="s">
         <v>69</v>
@@ -28441,7 +28250,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="199"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="69" t="s">
         <v>70</v>
       </c>
@@ -28513,7 +28322,7 @@
         <v>-2076.2387000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="69" t="s">
         <v>54</v>
       </c>
@@ -28585,7 +28394,7 @@
         <v>-10625.094299999997</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="69" t="s">
         <v>73</v>
       </c>
@@ -28657,7 +28466,7 @@
         <v>-7.4682999999999993</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="69" t="s">
         <v>75</v>
       </c>
@@ -28729,7 +28538,7 @@
         <v>-281.20610000000033</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
         <v>77</v>
@@ -28799,7 +28608,7 @@
         <v>-12990.007399999999</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="75"/>
       <c r="C15" s="198" t="s">
         <v>78</v>
@@ -28821,7 +28630,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="199"/>
     </row>
-    <row r="16" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="69" t="s">
         <v>79</v>
       </c>
@@ -28890,7 +28699,7 @@
         <v>8630.9115999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="69" t="s">
         <v>81</v>
       </c>
@@ -28959,7 +28768,7 @@
         <v>3741.7240000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="69" t="s">
         <v>83</v>
       </c>
@@ -29028,7 +28837,7 @@
         <v>8267.2194</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="69" t="s">
         <v>85</v>
       </c>
@@ -29097,7 +28906,7 @@
         <v>776.84690000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="69" t="s">
         <v>87</v>
       </c>
@@ -29166,7 +28975,7 @@
         <v>10550.1093</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="69" t="s">
         <v>89</v>
       </c>
@@ -29235,7 +29044,7 @@
         <v>638.51900000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="69" t="s">
         <v>110</v>
       </c>
@@ -29304,7 +29113,7 @@
         <v>3484.5785999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B23" s="69" t="s">
         <v>111</v>
       </c>
@@ -29373,7 +29182,7 @@
         <v>1477.7644</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="189" t="s">
         <v>113</v>
       </c>
@@ -29442,7 +29251,7 @@
         <v>37567.673199999997</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -29453,7 +29262,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -29464,7 +29273,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C27" s="73" t="s">
         <v>226</v>
       </c>
@@ -29479,7 +29288,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -29490,7 +29299,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -29501,7 +29310,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -29512,7 +29321,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -29523,7 +29332,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="D32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -29534,7 +29343,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -29545,7 +29354,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -29556,7 +29365,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -29567,7 +29376,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D36" s="27" t="s">
         <v>47</v>
       </c>
@@ -29585,7 +29394,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C37" s="28" t="s">
         <v>156</v>
       </c>
@@ -29606,7 +29415,7 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C38" s="30" t="s">
         <v>157</v>
       </c>
@@ -29627,15 +29436,15 @@
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="32"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="32"/>
     </row>
-    <row r="41" spans="2:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" ht="39.4" x14ac:dyDescent="0.4">
       <c r="B41" s="35" t="s">
         <v>132</v>
       </c>
@@ -29689,7 +29498,7 @@
       </c>
       <c r="S41" s="36"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B42" s="69" t="s">
         <v>79</v>
       </c>
@@ -29715,7 +29524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B43" s="69" t="s">
         <v>79</v>
       </c>
@@ -29741,7 +29550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B44" s="69" t="s">
         <v>79</v>
       </c>
@@ -29769,7 +29578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B45" s="69"/>
       <c r="C45" s="86"/>
       <c r="D45" s="97"/>
@@ -29789,7 +29598,7 @@
       <c r="R45" s="99"/>
       <c r="U45" s="86"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B46" s="69" t="s">
         <v>81</v>
       </c>
@@ -29815,7 +29624,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B47" s="69" t="s">
         <v>81</v>
       </c>
@@ -29841,7 +29650,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B48" s="69"/>
       <c r="C48" s="86"/>
       <c r="D48" s="97"/>
@@ -29861,7 +29670,7 @@
       <c r="R48" s="99"/>
       <c r="U48" s="86"/>
     </row>
-    <row r="49" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B49" s="69" t="s">
         <v>87</v>
       </c>
@@ -29889,7 +29698,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C52" s="104" t="s">
         <v>146</v>
       </c>
@@ -29900,7 +29709,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B53" s="26" t="s">
         <v>159</v>
       </c>
@@ -29914,7 +29723,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B54" s="69" t="s">
         <v>79</v>
       </c>
@@ -29924,7 +29733,7 @@
       <c r="D54" s="108"/>
       <c r="E54" s="108"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B55" s="69" t="s">
         <v>87</v>
       </c>
@@ -29934,7 +29743,7 @@
       <c r="D55" s="108"/>
       <c r="E55" s="108"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B56" s="69" t="s">
         <v>89</v>
       </c>
@@ -29944,7 +29753,7 @@
       <c r="D56" s="108"/>
       <c r="E56" s="108"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B57" s="69" t="s">
         <v>54</v>
       </c>
@@ -29969,19 +29778,19 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="25" max="25" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.86328125" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
+    <col min="12" max="12" width="26.1328125" customWidth="1"/>
+    <col min="13" max="13" width="22.59765625" customWidth="1"/>
+    <col min="15" max="15" width="7.1328125" customWidth="1"/>
+    <col min="25" max="25" width="2.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="174" t="s">
         <v>239</v>
       </c>
@@ -29990,7 +29799,7 @@
       <c r="M2" s="175"/>
       <c r="N2" s="175"/>
     </row>
-    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="174" t="s">
         <v>257</v>
       </c>
@@ -29999,17 +29808,17 @@
       <c r="M3" s="214"/>
       <c r="N3" s="176"/>
     </row>
-    <row r="4" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15" x14ac:dyDescent="0.4">
       <c r="L4" s="176"/>
       <c r="M4" s="214"/>
       <c r="N4" s="176"/>
     </row>
-    <row r="5" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" ht="15" x14ac:dyDescent="0.4">
       <c r="L5" s="176"/>
       <c r="M5" s="176"/>
       <c r="N5" s="176"/>
     </row>
-    <row r="6" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="35" t="s">
         <v>258</v>
       </c>
@@ -30017,7 +29826,7 @@
       <c r="M6" s="176"/>
       <c r="N6" s="176"/>
     </row>
-    <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" ht="15" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>259</v>
       </c>
@@ -30025,7 +29834,7 @@
       <c r="M7" s="176"/>
       <c r="N7" s="176"/>
     </row>
-    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>260</v>
       </c>
@@ -30033,7 +29842,7 @@
       <c r="M8" s="175"/>
       <c r="N8" s="176"/>
     </row>
-    <row r="9" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="15" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>261</v>
       </c>
@@ -30044,7 +29853,7 @@
       <c r="M9" s="176"/>
       <c r="N9" s="176"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>263</v>
       </c>
@@ -30052,36 +29861,36 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:30" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B18" s="174" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:30" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D20" s="173" t="s">
         <v>233</v>
       </c>
@@ -30108,14 +29917,14 @@
       <c r="AC20" s="173"/>
       <c r="AD20" s="173"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:30" ht="13.15" x14ac:dyDescent="0.4">
       <c r="L21" s="173" t="s">
         <v>237</v>
       </c>
       <c r="M21" s="173"/>
       <c r="N21" s="173"/>
     </row>
-    <row r="58" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="12:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
@@ -30131,32 +29940,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
@@ -30174,7 +29981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>EnergyBalance!D2</f>
@@ -30204,7 +30011,7 @@
       <c r="P2" s="218"/>
       <c r="Q2" s="218"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="I3" s="219" t="s">
         <v>7</v>
       </c>
@@ -30233,7 +30040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="I4" s="221" t="s">
         <v>40</v>
@@ -30263,7 +30070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="I5" s="218" t="s">
         <v>93</v>
       </c>
@@ -30285,7 +30092,7 @@
       <c r="P5" s="218"/>
       <c r="Q5" s="218"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
@@ -30302,7 +30109,7 @@
       <c r="P7" s="222"/>
       <c r="Q7" s="222"/>
     </row>
-    <row r="8" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B8" s="21" t="s">
         <v>265</v>
       </c>
@@ -30349,7 +30156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
@@ -30390,7 +30197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="230" t="s">
         <v>267</v>
       </c>
@@ -30418,7 +30225,7 @@
       <c r="P10" s="223"/>
       <c r="Q10" s="223"/>
     </row>
-    <row r="11" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="230" t="s">
         <v>267</v>
       </c>
@@ -30453,7 +30260,7 @@
       <c r="P11" s="222"/>
       <c r="Q11" s="222"/>
     </row>
-    <row r="12" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="230" t="s">
         <v>267</v>
       </c>
@@ -30487,7 +30294,7 @@
       <c r="P12" s="222"/>
       <c r="Q12" s="222"/>
     </row>
-    <row r="13" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="230" t="s">
         <v>269</v>
       </c>
@@ -30522,7 +30329,7 @@
       <c r="P13" s="222"/>
       <c r="Q13" s="222"/>
     </row>
-    <row r="14" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="230" t="s">
         <v>269</v>
       </c>
@@ -30557,7 +30364,7 @@
       <c r="P14" s="222"/>
       <c r="Q14" s="222"/>
     </row>
-    <row r="15" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="230" t="s">
         <v>269</v>
       </c>
@@ -30594,7 +30401,7 @@
       <c r="P15" s="222"/>
       <c r="Q15" s="222"/>
     </row>
-    <row r="16" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="230" t="s">
         <v>270</v>
       </c>
@@ -30608,7 +30415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="230" t="s">
         <v>270</v>
       </c>
@@ -30624,7 +30431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B18" s="230" t="s">
         <v>271</v>
       </c>
@@ -30634,7 +30441,7 @@
       <c r="F18" s="230"/>
       <c r="G18" s="230"/>
     </row>
-    <row r="19" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="230" t="s">
         <v>272</v>
       </c>
@@ -30649,7 +30456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="230" t="s">
         <v>272</v>
       </c>
@@ -30665,7 +30472,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="230" t="s">
         <v>271</v>
       </c>
@@ -30675,7 +30482,7 @@
       <c r="F21" s="230"/>
       <c r="G21" s="230"/>
     </row>
-    <row r="22" spans="2:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="230" t="s">
         <v>273</v>
       </c>
@@ -30703,7 +30510,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B23" s="230" t="s">
         <v>273</v>
       </c>
@@ -30720,13 +30527,13 @@
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I28" s="82"/>
       <c r="J28" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I29" s="152"/>
       <c r="J29" s="1" t="s">
         <v>230</v>
@@ -30749,28 +30556,28 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.73046875" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
@@ -30787,7 +30594,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>EnergyBalance!E2</f>
@@ -30817,7 +30624,7 @@
       <c r="P2" s="218"/>
       <c r="Q2" s="218"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="I3" s="219" t="s">
         <v>7</v>
       </c>
@@ -30846,7 +30653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="I4" s="221" t="s">
         <v>40</v>
@@ -30876,7 +30683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="I5" s="218" t="s">
         <v>93</v>
       </c>
@@ -30898,7 +30705,7 @@
       <c r="P5" s="218"/>
       <c r="Q5" s="218"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
@@ -30915,7 +30722,7 @@
       <c r="P7" s="222"/>
       <c r="Q7" s="222"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="21" t="s">
         <v>265</v>
       </c>
@@ -30962,7 +30769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
@@ -31003,7 +30810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="230" t="s">
         <v>274</v>
       </c>
@@ -31031,7 +30838,7 @@
       <c r="P10" s="223"/>
       <c r="Q10" s="223"/>
     </row>
-    <row r="11" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="230" t="s">
         <v>274</v>
       </c>
@@ -31066,7 +30873,7 @@
       <c r="P11" s="222"/>
       <c r="Q11" s="222"/>
     </row>
-    <row r="12" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="230" t="s">
         <v>274</v>
       </c>
@@ -31100,7 +30907,7 @@
       <c r="P12" s="222"/>
       <c r="Q12" s="222"/>
     </row>
-    <row r="13" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="230" t="s">
         <v>275</v>
       </c>
@@ -31135,7 +30942,7 @@
       <c r="P13" s="222"/>
       <c r="Q13" s="222"/>
     </row>
-    <row r="14" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="230" t="s">
         <v>275</v>
       </c>
@@ -31170,7 +30977,7 @@
       <c r="P14" s="222"/>
       <c r="Q14" s="222"/>
     </row>
-    <row r="15" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="230" t="s">
         <v>275</v>
       </c>
@@ -31207,7 +31014,7 @@
       <c r="P15" s="222"/>
       <c r="Q15" s="222"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="235" t="s">
         <v>276</v>
       </c>
@@ -31221,7 +31028,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="230" t="s">
         <v>276</v>
       </c>
@@ -31237,7 +31044,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B18" s="230" t="s">
         <v>271</v>
       </c>
@@ -31247,7 +31054,7 @@
       <c r="F18" s="230"/>
       <c r="G18" s="230"/>
     </row>
-    <row r="19" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="230" t="s">
         <v>277</v>
       </c>
@@ -31263,7 +31070,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="230" t="s">
         <v>271</v>
       </c>
@@ -31273,7 +31080,7 @@
       <c r="F20" s="230"/>
       <c r="G20" s="230"/>
     </row>
-    <row r="21" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="230" t="s">
         <v>278</v>
       </c>
@@ -31290,7 +31097,7 @@
         <v>2516.3310000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="230" t="s">
         <v>278</v>
       </c>
@@ -31306,7 +31113,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -31319,17 +31126,17 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="82"/>
       <c r="C26" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="152"/>
       <c r="C27" s="1" t="s">
         <v>230</v>
@@ -31355,28 +31162,28 @@
       <selection activeCell="B26" sqref="B26:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
@@ -31393,7 +31200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>EnergyBalance!F2</f>
@@ -31423,7 +31230,7 @@
       <c r="P2" s="218"/>
       <c r="Q2" s="218"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="I3" s="219" t="s">
         <v>7</v>
       </c>
@@ -31452,7 +31259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="I4" s="221" t="s">
         <v>40</v>
@@ -31482,7 +31289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="I5" s="218" t="s">
         <v>93</v>
       </c>
@@ -31504,7 +31311,7 @@
       <c r="P5" s="218"/>
       <c r="Q5" s="218"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C7" s="237" t="s">
         <v>13</v>
       </c>
@@ -31521,7 +31328,7 @@
       <c r="P7" s="222"/>
       <c r="Q7" s="222"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="238" t="s">
         <v>265</v>
       </c>
@@ -31568,7 +31375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
@@ -31609,7 +31416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="230" t="s">
         <v>279</v>
       </c>
@@ -31637,7 +31444,7 @@
       <c r="P10" s="223"/>
       <c r="Q10" s="223"/>
     </row>
-    <row r="11" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="230" t="s">
         <v>279</v>
       </c>
@@ -31673,7 +31480,7 @@
       <c r="P11" s="222"/>
       <c r="Q11" s="222"/>
     </row>
-    <row r="12" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="230" t="s">
         <v>279</v>
       </c>
@@ -31707,7 +31514,7 @@
       <c r="P12" s="222"/>
       <c r="Q12" s="222"/>
     </row>
-    <row r="13" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="230" t="s">
         <v>280</v>
       </c>
@@ -31742,7 +31549,7 @@
       <c r="P13" s="222"/>
       <c r="Q13" s="222"/>
     </row>
-    <row r="14" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="230" t="s">
         <v>280</v>
       </c>
@@ -31778,7 +31585,7 @@
       <c r="P14" s="222"/>
       <c r="Q14" s="222"/>
     </row>
-    <row r="15" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="230" t="s">
         <v>280</v>
       </c>
@@ -31815,7 +31622,7 @@
       <c r="P15" s="222"/>
       <c r="Q15" s="222"/>
     </row>
-    <row r="16" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="230" t="s">
         <v>281</v>
       </c>
@@ -31830,7 +31637,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="230" t="s">
         <v>281</v>
       </c>
@@ -31846,7 +31653,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B18" s="230" t="s">
         <v>271</v>
       </c>
@@ -31858,7 +31665,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="230" t="s">
         <v>282</v>
       </c>
@@ -31877,7 +31684,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="230" t="s">
         <v>271</v>
       </c>
@@ -31887,7 +31694,7 @@
       <c r="F20" s="230"/>
       <c r="G20" s="230"/>
     </row>
-    <row r="21" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="230" t="s">
         <v>283</v>
       </c>
@@ -31904,7 +31711,7 @@
         <v>2307.8796999999995</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="230" t="s">
         <v>283</v>
       </c>
@@ -31920,16 +31727,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H24" s="1"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26" s="82"/>
       <c r="C26" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B27" s="152"/>
       <c r="C27" s="1" t="s">
         <v>230</v>
@@ -31952,29 +31759,29 @@
       <selection activeCell="E1" sqref="E1:F65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" customWidth="1"/>
     <col min="8" max="8" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.59765625" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
+    <col min="16" max="16" width="13.59765625" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="37"/>
+    <col min="18" max="16384" width="8.86328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
@@ -31991,7 +31798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>EnergyBalance!O2</f>
@@ -32021,7 +31828,7 @@
       <c r="P2" s="218"/>
       <c r="Q2" s="218"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F3" s="13"/>
       <c r="I3" s="219" t="s">
         <v>7</v>
@@ -32051,7 +31858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="I4" s="221" t="s">
         <v>40</v>
@@ -32081,7 +31888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="I5" s="218" t="s">
         <v>93</v>
       </c>
@@ -32103,7 +31910,7 @@
       <c r="P5" s="218"/>
       <c r="Q5" s="218"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
@@ -32120,7 +31927,7 @@
       <c r="P7" s="222"/>
       <c r="Q7" s="222"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -32167,7 +31974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
@@ -32214,7 +32021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>115</v>
       </c>
@@ -32244,7 +32051,7 @@
       <c r="P10" s="223"/>
       <c r="Q10" s="223"/>
     </row>
-    <row r="11" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="str">
         <f>K11</f>
         <v>MINRNW1</v>
@@ -32278,7 +32085,7 @@
       <c r="P11" s="222"/>
       <c r="Q11" s="222"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -32286,7 +32093,7 @@
       <c r="F12" s="34"/>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -32294,7 +32101,7 @@
       <c r="F13" s="34"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -32302,7 +32109,7 @@
       <c r="F14" s="34"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -32311,21 +32118,21 @@
       <c r="G15" s="10"/>
       <c r="L15" s="24"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="82"/>
       <c r="C23" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="152"/>
       <c r="C24" s="1" t="s">
         <v>230</v>
@@ -32348,29 +32155,29 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" customWidth="1"/>
     <col min="8" max="8" width="2" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="37"/>
+    <col min="18" max="16384" width="8.86328125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
@@ -32387,7 +32194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>EnergyBalance!N2</f>
@@ -32417,7 +32224,7 @@
       <c r="P2" s="218"/>
       <c r="Q2" s="218"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F3" s="13"/>
       <c r="I3" s="219" t="s">
         <v>7</v>
@@ -32447,7 +32254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="I4" s="221" t="s">
         <v>40</v>
@@ -32477,7 +32284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="I5" s="218" t="s">
         <v>93</v>
       </c>
@@ -32499,7 +32306,7 @@
       <c r="P5" s="218"/>
       <c r="Q5" s="218"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
@@ -32516,7 +32323,7 @@
       <c r="P7" s="222"/>
       <c r="Q7" s="222"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -32563,7 +32370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
@@ -32610,7 +32417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>115</v>
       </c>
@@ -32640,7 +32447,7 @@
       <c r="P10" s="223"/>
       <c r="Q10" s="223"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="str">
         <f>K11</f>
         <v>MINNUC1</v>
@@ -32674,7 +32481,7 @@
       <c r="P11" s="222"/>
       <c r="Q11" s="222"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -32682,7 +32489,7 @@
       <c r="F12" s="34"/>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -32690,7 +32497,7 @@
       <c r="F13" s="34"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -32698,7 +32505,7 @@
       <c r="F14" s="34"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -32707,21 +32514,21 @@
       <c r="G15" s="10"/>
       <c r="L15" s="24"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="82"/>
       <c r="C23" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="152"/>
       <c r="C24" s="1" t="s">
         <v>230</v>
